--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H2">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I2">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J2">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N2">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O2">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P2">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q2">
-        <v>245.3162709685258</v>
+        <v>106.7613962806763</v>
       </c>
       <c r="R2">
-        <v>981.2650838741031</v>
+        <v>427.045585122705</v>
       </c>
       <c r="S2">
-        <v>0.1864078668659134</v>
+        <v>0.114772050846197</v>
       </c>
       <c r="T2">
-        <v>0.1276372766530915</v>
+        <v>0.06937621657691177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H3">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I3">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J3">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>3.437017</v>
       </c>
       <c r="O3">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P3">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q3">
-        <v>86.42938391882284</v>
+        <v>33.2073498160175</v>
       </c>
       <c r="R3">
-        <v>518.576303512937</v>
+        <v>199.244098896105</v>
       </c>
       <c r="S3">
-        <v>0.06567488176481334</v>
+        <v>0.03569900520532299</v>
       </c>
       <c r="T3">
-        <v>0.06745340092597289</v>
+        <v>0.03236844552020374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H4">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I4">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J4">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N4">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O4">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P4">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q4">
-        <v>82.050526348454</v>
+        <v>14.5286219388175</v>
       </c>
       <c r="R4">
-        <v>492.303158090724</v>
+        <v>87.17173163290501</v>
       </c>
       <c r="S4">
-        <v>0.06234753011471902</v>
+        <v>0.01561875166472461</v>
       </c>
       <c r="T4">
-        <v>0.06403594239625296</v>
+        <v>0.01416159104281841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H5">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I5">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J5">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N5">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O5">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P5">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q5">
-        <v>169.7375433684655</v>
+        <v>54.79537786782375</v>
       </c>
       <c r="R5">
-        <v>678.950173473862</v>
+        <v>219.181511471295</v>
       </c>
       <c r="S5">
-        <v>0.1289780464274039</v>
+        <v>0.05890685316861811</v>
       </c>
       <c r="T5">
-        <v>0.08831390472308526</v>
+        <v>0.03560740243952698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H6">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I6">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J6">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N6">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O6">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P6">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q6">
-        <v>194.3072814356153</v>
+        <v>87.780185435145</v>
       </c>
       <c r="R6">
-        <v>1165.843688613692</v>
+        <v>526.6811126108699</v>
       </c>
       <c r="S6">
-        <v>0.1476477924025465</v>
+        <v>0.0943666180570044</v>
       </c>
       <c r="T6">
-        <v>0.1516461921077977</v>
+        <v>0.08556262892862272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H7">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I7">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J7">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N7">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O7">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P7">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q7">
-        <v>159.2804191863312</v>
+        <v>24.555249983025</v>
       </c>
       <c r="R7">
-        <v>955.6825151179869</v>
+        <v>147.33149989815</v>
       </c>
       <c r="S7">
-        <v>0.1210320173904889</v>
+        <v>0.02639771020026391</v>
       </c>
       <c r="T7">
-        <v>0.1243096443348911</v>
+        <v>0.02393492030270814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H8">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I8">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J8">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N8">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O8">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P8">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q8">
-        <v>0.07807707805216668</v>
+        <v>0.08843794506116666</v>
       </c>
       <c r="R8">
-        <v>0.4684624683130001</v>
+        <v>0.530627670367</v>
       </c>
       <c r="S8">
-        <v>5.932823580501566E-05</v>
+        <v>9.507373152565803E-05</v>
       </c>
       <c r="T8">
-        <v>6.093488360310192E-05</v>
+        <v>8.620377183036679E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H9">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I9">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J9">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>3.437017</v>
       </c>
       <c r="O9">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P9">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q9">
-        <v>0.02750797461411112</v>
+        <v>0.02750797461411111</v>
       </c>
       <c r="R9">
-        <v>0.2475717715270001</v>
+        <v>0.247571771527</v>
       </c>
       <c r="S9">
-        <v>2.090241649839866E-05</v>
+        <v>2.957198735755107E-05</v>
       </c>
       <c r="T9">
-        <v>3.220270160753207E-05</v>
+        <v>4.021957710873355E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H10">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I10">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J10">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N10">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O10">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P10">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q10">
-        <v>0.02611431082266667</v>
+        <v>0.01203507553855556</v>
       </c>
       <c r="R10">
-        <v>0.235028797404</v>
+        <v>0.108315679847</v>
       </c>
       <c r="S10">
-        <v>1.984341664704045E-05</v>
+        <v>1.293810637337021E-05</v>
       </c>
       <c r="T10">
-        <v>3.057118420769832E-05</v>
+        <v>1.759655719560179E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H11">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I11">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J11">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N11">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O11">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P11">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q11">
-        <v>0.05402255370033334</v>
+        <v>0.04539085087216666</v>
       </c>
       <c r="R11">
-        <v>0.324135322202</v>
+        <v>0.272345105233</v>
       </c>
       <c r="S11">
-        <v>4.104998399890242E-05</v>
+        <v>4.879667394529378E-05</v>
       </c>
       <c r="T11">
-        <v>4.216164466954951E-05</v>
+        <v>4.424415955237532E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H12">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I12">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J12">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N12">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O12">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P12">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q12">
-        <v>0.06184239112577778</v>
+        <v>0.07271447814866666</v>
       </c>
       <c r="R12">
-        <v>0.556581520132</v>
+        <v>0.654430303338</v>
       </c>
       <c r="S12">
-        <v>4.699202448386624E-05</v>
+        <v>7.817048178531551E-05</v>
       </c>
       <c r="T12">
-        <v>7.239689930127062E-05</v>
+        <v>0.0001063162810729576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H13">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I13">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J13">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N13">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O13">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P13">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q13">
-        <v>0.0506943533418889</v>
+        <v>0.02034083409</v>
       </c>
       <c r="R13">
-        <v>0.456249180077</v>
+        <v>0.18306750681</v>
       </c>
       <c r="S13">
-        <v>3.852099264064231E-05</v>
+        <v>2.186707298482656E-05</v>
       </c>
       <c r="T13">
-        <v>5.934624983324662E-05</v>
+        <v>2.974045732611082E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H14">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I14">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J14">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N14">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O14">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P14">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q14">
-        <v>6.620303416305833</v>
+        <v>11.37739779814117</v>
       </c>
       <c r="R14">
-        <v>39.721820497835</v>
+        <v>68.26438678884699</v>
       </c>
       <c r="S14">
-        <v>0.005030553550184293</v>
+        <v>0.01223108093446712</v>
       </c>
       <c r="T14">
-        <v>0.005166784261832646</v>
+        <v>0.01108997504562031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H15">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I15">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J15">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>3.437017</v>
       </c>
       <c r="O15">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P15">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q15">
-        <v>2.332453299440556</v>
+        <v>3.538856195600778</v>
       </c>
       <c r="R15">
-        <v>20.992079694965</v>
+        <v>31.84970576040699</v>
       </c>
       <c r="S15">
-        <v>0.001772355508244535</v>
+        <v>0.003804388078168915</v>
       </c>
       <c r="T15">
-        <v>0.002730528098453932</v>
+        <v>0.005174183182598674</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H16">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I16">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J16">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N16">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O16">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P16">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q16">
-        <v>2.214281905353333</v>
+        <v>1.548292894391889</v>
       </c>
       <c r="R16">
-        <v>19.92853714818</v>
+        <v>13.934636049527</v>
       </c>
       <c r="S16">
-        <v>0.001682560903877682</v>
+        <v>0.00166446634261672</v>
       </c>
       <c r="T16">
-        <v>0.002592188646141628</v>
+        <v>0.002263768464471192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H17">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I17">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J17">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N17">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O17">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P17">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q17">
-        <v>4.580674709431666</v>
+        <v>5.839459141792166</v>
       </c>
       <c r="R17">
-        <v>27.48404825659</v>
+        <v>35.036754850753</v>
       </c>
       <c r="S17">
-        <v>0.003480705939400763</v>
+        <v>0.006277612740976934</v>
       </c>
       <c r="T17">
-        <v>0.0035749657544356</v>
+        <v>0.005691939168460376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H18">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I18">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J18">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N18">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O18">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P18">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q18">
-        <v>5.243733544548888</v>
+        <v>9.354599352228666</v>
       </c>
       <c r="R18">
-        <v>47.19360190094</v>
+        <v>84.19139417005799</v>
       </c>
       <c r="S18">
-        <v>0.00398454281321602</v>
+        <v>0.01005650534653151</v>
       </c>
       <c r="T18">
-        <v>0.006138670295191083</v>
+        <v>0.01367741664903479</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.035881666666667</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H19">
-        <v>6.107645</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I19">
-        <v>0.0192169866842234</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J19">
-        <v>0.02523521804983228</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N19">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O19">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P19">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q19">
-        <v>4.298470293579443</v>
+        <v>2.61681522369</v>
       </c>
       <c r="R19">
-        <v>38.686232642215</v>
+        <v>23.55133701321</v>
       </c>
       <c r="S19">
-        <v>0.003266267969300104</v>
+        <v>0.002813163375260315</v>
       </c>
       <c r="T19">
-        <v>0.005032080993777394</v>
+        <v>0.003826061465627419</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H20">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I20">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J20">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N20">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O20">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P20">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q20">
-        <v>1.16031950895875</v>
+        <v>1.49546267929225</v>
       </c>
       <c r="R20">
-        <v>4.641278035835001</v>
+        <v>5.981850717169</v>
       </c>
       <c r="S20">
-        <v>0.0008816891097111743</v>
+        <v>0.001607672104766078</v>
       </c>
       <c r="T20">
-        <v>0.000603710555301685</v>
+        <v>0.0009717889268562002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H21">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I21">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J21">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>3.437017</v>
       </c>
       <c r="O21">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P21">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q21">
-        <v>0.4088016661608334</v>
+        <v>0.4651527055481667</v>
       </c>
       <c r="R21">
-        <v>2.452809996965</v>
+        <v>2.790916233289</v>
       </c>
       <c r="S21">
-        <v>0.0003106351089530837</v>
+        <v>0.0005000546249139234</v>
       </c>
       <c r="T21">
-        <v>0.0003190473128056979</v>
+        <v>0.0004534017346018034</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H22">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I22">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J22">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N22">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O22">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P22">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q22">
-        <v>0.3880901420300001</v>
+        <v>0.2035100012548333</v>
       </c>
       <c r="R22">
-        <v>2.32854085218</v>
+        <v>1.221060007529</v>
       </c>
       <c r="S22">
-        <v>0.0002948970944401129</v>
+        <v>0.0002187800181099449</v>
       </c>
       <c r="T22">
-        <v>0.0003028831024684215</v>
+        <v>0.0001983688076564393</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H23">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I23">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J23">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N23">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O23">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P23">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q23">
-        <v>0.8028402771475001</v>
+        <v>0.76754749800775</v>
       </c>
       <c r="R23">
-        <v>3.21136110859</v>
+        <v>3.070189992031</v>
       </c>
       <c r="S23">
-        <v>0.0006100522517575082</v>
+        <v>0.0008251390815142568</v>
       </c>
       <c r="T23">
-        <v>0.0004177152463550508</v>
+        <v>0.0004987714970948779</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H24">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I24">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J24">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N24">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O24">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P24">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q24">
-        <v>0.9190524888233333</v>
+        <v>1.229582937961</v>
       </c>
       <c r="R24">
-        <v>5.51431493294</v>
+        <v>7.377497627766</v>
       </c>
       <c r="S24">
-        <v>0.0006983581370407613</v>
+        <v>0.001321842542263745</v>
       </c>
       <c r="T24">
-        <v>0.0007172701364947768</v>
+        <v>0.001198520464911217</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3568225</v>
+        <v>0.4060085</v>
       </c>
       <c r="H25">
-        <v>0.7136450000000001</v>
+        <v>0.812017</v>
       </c>
       <c r="I25">
-        <v>0.00336810009314456</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J25">
-        <v>0.002948597566684469</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N25">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O25">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P25">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q25">
-        <v>0.7533792073691666</v>
+        <v>0.3439582209450001</v>
       </c>
       <c r="R25">
-        <v>4.520275244215</v>
+        <v>2.06374932567</v>
       </c>
       <c r="S25">
-        <v>0.0005724683912419204</v>
+        <v>0.0003697665242170713</v>
       </c>
       <c r="T25">
-        <v>0.000587971213258837</v>
+        <v>0.0003352689388815445</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H26">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I26">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J26">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N26">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O26">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P26">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q26">
-        <v>85.378372580991</v>
+        <v>174.4255582932607</v>
       </c>
       <c r="R26">
-        <v>512.270235485946</v>
+        <v>1046.553349759564</v>
       </c>
       <c r="S26">
-        <v>0.06487625238420346</v>
+        <v>0.187513274860886</v>
       </c>
       <c r="T26">
-        <v>0.06663314413442734</v>
+        <v>0.1700191136066887</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H27">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I27">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J27">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>3.437017</v>
       </c>
       <c r="O27">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P27">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q27">
-        <v>30.080353467926</v>
+        <v>54.25379147225377</v>
       </c>
       <c r="R27">
-        <v>270.723181211334</v>
+        <v>488.284123250284</v>
       </c>
       <c r="S27">
-        <v>0.02285708364305022</v>
+        <v>0.05832462978549047</v>
       </c>
       <c r="T27">
-        <v>0.03521410283982897</v>
+        <v>0.07932479872364361</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H28">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I28">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J28">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N28">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O28">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P28">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q28">
-        <v>28.556362696152</v>
+        <v>23.73669773152489</v>
       </c>
       <c r="R28">
-        <v>257.007264265368</v>
+        <v>213.630279583724</v>
       </c>
       <c r="S28">
-        <v>0.02169905255213177</v>
+        <v>0.02551773931282391</v>
       </c>
       <c r="T28">
-        <v>0.03343001583362332</v>
+        <v>0.03470557022508055</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H29">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I29">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J29">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N29">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O29">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P29">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q29">
-        <v>59.074415086614</v>
+        <v>89.52406683927266</v>
       </c>
       <c r="R29">
-        <v>354.446490519684</v>
+        <v>537.144401035636</v>
       </c>
       <c r="S29">
-        <v>0.04488872939072225</v>
+        <v>0.09624134855095641</v>
       </c>
       <c r="T29">
-        <v>0.04610434582117739</v>
+        <v>0.08726245533861754</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H30">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I30">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J30">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N30">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O30">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P30">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q30">
-        <v>67.625516253416</v>
+        <v>143.4142713098107</v>
       </c>
       <c r="R30">
-        <v>608.6296462807439</v>
+        <v>1290.728441788296</v>
       </c>
       <c r="S30">
-        <v>0.05138643344257739</v>
+        <v>0.1541751102202391</v>
       </c>
       <c r="T30">
-        <v>0.07916701798346616</v>
+        <v>0.2096868789634134</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.255634</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H31">
-        <v>78.766902</v>
+        <v>142.066252</v>
       </c>
       <c r="I31">
-        <v>0.2478307935205024</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J31">
-        <v>0.3254445775875597</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N31">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O31">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P31">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q31">
-        <v>55.434981627826</v>
+        <v>40.11808890228</v>
       </c>
       <c r="R31">
-        <v>498.9148346504339</v>
+        <v>361.06280012052</v>
       </c>
       <c r="S31">
-        <v>0.04212324210781737</v>
+        <v>0.0431282795069451</v>
       </c>
       <c r="T31">
-        <v>0.06489595097503648</v>
+        <v>0.05865690196007976</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H32">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I32">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J32">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N32">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O32">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P32">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q32">
-        <v>5.949336554704668</v>
+        <v>14.62399035456767</v>
       </c>
       <c r="R32">
-        <v>35.696019328228</v>
+        <v>87.74394212740599</v>
       </c>
       <c r="S32">
-        <v>0.004520707623882744</v>
+        <v>0.01572127588268091</v>
       </c>
       <c r="T32">
-        <v>0.004643131371212324</v>
+        <v>0.01425455020356627</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H33">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I33">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J33">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>3.437017</v>
       </c>
       <c r="O33">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P33">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q33">
-        <v>2.096059470979112</v>
+        <v>4.548685014698444</v>
       </c>
       <c r="R33">
-        <v>18.864535238812</v>
+        <v>40.938165132286</v>
       </c>
       <c r="S33">
-        <v>0.001592727515654438</v>
+        <v>0.0048899876357724</v>
       </c>
       <c r="T33">
-        <v>0.002453789442606077</v>
+        <v>0.00665066004525672</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H34">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I34">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J34">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N34">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O34">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P34">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q34">
-        <v>1.989864731802667</v>
+        <v>1.990105361116222</v>
       </c>
       <c r="R34">
-        <v>17.908782586224</v>
+        <v>17.910948250046</v>
       </c>
       <c r="S34">
-        <v>0.001512033582373499</v>
+        <v>0.00213942943472595</v>
       </c>
       <c r="T34">
-        <v>0.002329470675195464</v>
+        <v>0.002909745161130773</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H35">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I35">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J35">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N35">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O35">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P35">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q35">
-        <v>4.116423943185334</v>
+        <v>7.505775545565666</v>
       </c>
       <c r="R35">
-        <v>24.698543659112</v>
+        <v>45.034653273394</v>
       </c>
       <c r="S35">
-        <v>0.003127936860182418</v>
+        <v>0.008068958280491574</v>
       </c>
       <c r="T35">
-        <v>0.003212643455630181</v>
+        <v>0.00731616007238052</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H36">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I36">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J36">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N36">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O36">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P36">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q36">
-        <v>4.712281854465778</v>
+        <v>12.02397711014267</v>
       </c>
       <c r="R36">
-        <v>42.410536690192</v>
+        <v>108.215793991284</v>
       </c>
       <c r="S36">
-        <v>0.003580709934542483</v>
+        <v>0.0129261751938007</v>
       </c>
       <c r="T36">
-        <v>0.00551651688569267</v>
+        <v>0.01758033011586946</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.829545333333334</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H37">
-        <v>5.488636000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I37">
-        <v>0.0172693476661707</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J37">
-        <v>0.02267763209160966</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N37">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O37">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P37">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q37">
-        <v>3.862820906956889</v>
+        <v>3.36353542962</v>
       </c>
       <c r="R37">
-        <v>34.765388162612</v>
+        <v>30.27181886658</v>
       </c>
       <c r="S37">
-        <v>0.002935232149535122</v>
+        <v>0.003615912425278057</v>
       </c>
       <c r="T37">
-        <v>0.004522080261272943</v>
+        <v>0.0049178456235801</v>
       </c>
     </row>
   </sheetData>
